--- a/2021/scores.xlsx
+++ b/2021/scores.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuva\Documents\GitHub\SA\2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA25F87-E237-4630-A5E1-E979923DE38B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5736" xr2:uid="{D6C74E9A-A52B-4AD2-A383-64F8A21D502B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Апарина Елизавета Сергеевна</t>
   </si>
@@ -97,17 +91,32 @@
   </si>
   <si>
     <t>Толстихина Алена Юрьевна</t>
+  </si>
+  <si>
+    <t>Посещаемость ЛК</t>
+  </si>
+  <si>
+    <t>Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -445,26 +455,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E71D5CB-1D9D-41D0-A71E-277E0BFB8EAF}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -474,13 +484,15 @@
       <c r="D1">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E2">
+      <c r="E1">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -491,8 +503,16 @@
         <f>C3*$D$1/$C$1</f>
         <v>67.977375231053614</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>SUM(B30:M30)</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <f>E3+D3</f>
+        <v>79.977375231053614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -503,8 +523,16 @@
         <f t="shared" ref="D4:D25" si="0">C4*$D$1/$C$1</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f t="shared" ref="E4:E25" si="1">SUM(B31:M31)</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F25" si="2">E4+D4</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -515,8 +543,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -527,8 +563,16 @@
         <f t="shared" si="0"/>
         <v>67.98743068391866</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>79.98743068391866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -539,8 +583,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -551,8 +603,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -563,8 +623,16 @@
         <f t="shared" si="0"/>
         <v>67.98365988909427</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>78.98365988909427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -575,8 +643,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -587,8 +663,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -599,8 +683,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -611,8 +703,16 @@
         <f t="shared" si="0"/>
         <v>67.974861367837335</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>79.974861367837335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -623,8 +723,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -635,8 +743,16 @@
         <f t="shared" si="0"/>
         <v>67.949722735674683</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>67.949722735674683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -647,8 +763,16 @@
         <f t="shared" si="0"/>
         <v>67.949722735674683</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>77.949722735674683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -659,8 +783,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -671,8 +803,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -683,8 +823,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -695,8 +843,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -707,8 +863,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -719,8 +883,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -731,8 +903,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -743,8 +923,16 @@
         <f t="shared" si="0"/>
         <v>66.743068391866913</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>71.743068391866913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -754,6 +942,998 @@
       <c r="D25" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
